--- a/锻炼日程.xlsx
+++ b/锻炼日程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24800" windowHeight="11020"/>
+    <workbookView windowWidth="25600" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>星期一</t>
   </si>
@@ -37,80 +37,56 @@
     <t>星期日</t>
   </si>
   <si>
+    <t>周次</t>
+  </si>
+  <si>
+    <t>单次</t>
+  </si>
+  <si>
     <t>活动了一下</t>
   </si>
   <si>
-    <t>54节常规，换成 42节常规，10节拳击。</t>
-  </si>
-  <si>
     <t>第01节常规；</t>
   </si>
   <si>
     <t>第02节常规；</t>
   </si>
   <si>
-    <t>拳击6月28日完。</t>
-  </si>
-  <si>
     <t>第03节常规；</t>
   </si>
   <si>
     <t>第04节常规；</t>
   </si>
   <si>
-    <t>刘博买一送一，总44节，7月15日，常规完。</t>
-  </si>
-  <si>
     <t>自己锻炼;</t>
   </si>
   <si>
     <t>第05节常规；</t>
   </si>
   <si>
-    <t>体态课预计7月29日完。</t>
-  </si>
-  <si>
     <t>第1节拳击，其实应该是常规，不过这样也好。</t>
   </si>
   <si>
     <t>第06节常规，</t>
   </si>
   <si>
-    <t>健身卡</t>
-  </si>
-  <si>
     <t>自己锻炼，</t>
-  </si>
-  <si>
-    <t>常规</t>
   </si>
   <si>
     <t>第07节常规，
 第2节拳击。</t>
   </si>
   <si>
-    <t>体态</t>
-  </si>
-  <si>
     <t>第08节常规</t>
   </si>
   <si>
-    <t>刘博买一送一</t>
-  </si>
-  <si>
     <t>第09节常规；</t>
-  </si>
-  <si>
-    <t>总花费</t>
   </si>
   <si>
     <t>第10节常规，
 第3节拳击。</t>
   </si>
   <si>
-    <t>我日，吓死老子了</t>
-  </si>
-  <si>
     <t>自由锻炼；</t>
   </si>
   <si>
@@ -301,7 +277,16 @@
     <t>第十六周</t>
   </si>
   <si>
+    <t>胸，不去</t>
+  </si>
+  <si>
     <t>第十七周</t>
+  </si>
+  <si>
+    <t>胸背腿</t>
+  </si>
+  <si>
+    <t>腿腹背</t>
   </si>
   <si>
     <t>第十八周</t>
@@ -330,11 +315,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -373,6 +358,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -381,7 +382,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -398,71 +399,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,8 +421,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,14 +443,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +503,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -560,25 +557,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,157 +737,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,6 +803,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -798,17 +828,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,178 +849,174 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,94 +1035,115 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1431,10 +1467,10 @@
   <sheetPr/>
   <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6428571428571" defaultRowHeight="26"/>
@@ -1443,54 +1479,60 @@
     <col min="2" max="7" width="18.0357142857143" style="4" customWidth="1"/>
     <col min="8" max="8" width="20.8928571428571" style="4" customWidth="1"/>
     <col min="9" max="9" width="20.6428571428571" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="20.6428571428571" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.6428571428571" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="20.6428571428571" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="24" spans="1:10">
-      <c r="A2" s="10">
+      <c r="I1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="11">
         <v>43469</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="27" t="s">
-        <v>7</v>
+      <c r="F2" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="24" spans="1:10">
-      <c r="A3" s="11">
+      <c r="I2" s="37"/>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:10">
+      <c r="A3" s="12">
         <v>43471</v>
       </c>
       <c r="B3" s="4"/>
@@ -1499,51 +1541,55 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="24" spans="1:10">
-      <c r="A4" s="12">
+      <c r="H3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:10">
+      <c r="A4" s="13">
         <v>43473</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="13" t="s">
-        <v>10</v>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="24" spans="1:10">
-      <c r="A5" s="14">
+      <c r="I4" s="37"/>
+      <c r="J4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:10">
+      <c r="A5" s="15">
         <v>43476</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="32" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="24" spans="1:10">
-      <c r="A6" s="15">
+      <c r="I5" s="37"/>
+      <c r="J5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:10">
+      <c r="A6" s="16">
         <v>43479</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4"/>
@@ -1552,47 +1598,49 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="24" spans="1:10">
-      <c r="A7" s="17">
+      <c r="I6" s="37"/>
+      <c r="J6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:10">
+      <c r="A7" s="18">
         <v>43481</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="18" t="s">
-        <v>15</v>
+      <c r="D7" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="24" spans="1:10">
-      <c r="A8" s="10">
+      <c r="I7" s="37"/>
+      <c r="J7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:10">
+      <c r="A8" s="11">
         <v>43483</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="27" t="s">
-        <v>16</v>
+      <c r="F8" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="4"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="70" spans="1:10">
-      <c r="A9" s="11">
+      <c r="A9" s="12">
         <v>43485</v>
       </c>
       <c r="B9" s="4"/>
@@ -1601,54 +1649,52 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="H9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:10">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>43487</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="13" t="s">
-        <v>19</v>
+      <c r="C10" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="5">
-        <v>5940</v>
+      <c r="I10" s="37"/>
+      <c r="J10" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:10">
-      <c r="A11" s="14">
+      <c r="A11" s="15">
         <v>43489</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="29" t="s">
-        <v>21</v>
+      <c r="E11" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="5">
-        <v>21600</v>
+      <c r="I11" s="37"/>
+      <c r="J11" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="47" spans="1:10">
-      <c r="A12" s="19">
+      <c r="A12" s="20">
         <v>43491</v>
       </c>
       <c r="B12" s="4"/>
@@ -1656,23 +1702,21 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="30" t="s">
-        <v>23</v>
+      <c r="G12" s="33" t="s">
+        <v>19</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="5">
-        <v>5040</v>
+      <c r="I12" s="37"/>
+      <c r="J12" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:10">
-      <c r="A13" s="15">
+      <c r="A13" s="16">
         <v>43521</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>25</v>
+      <c r="B13" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1680,15 +1724,13 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="5">
-        <v>500</v>
+      <c r="I13" s="37"/>
+      <c r="J13" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:10">
-      <c r="A14" s="11">
+      <c r="A14" s="12">
         <v>43527</v>
       </c>
       <c r="B14" s="4"/>
@@ -1697,56 +1739,56 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="5">
-        <v>33080</v>
+      <c r="H14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="47" spans="1:10">
-      <c r="A15" s="17">
+      <c r="A15" s="18">
         <v>43530</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="18" t="s">
-        <v>29</v>
+      <c r="D15" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="4"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="6">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:10">
-      <c r="A16" s="10">
+      <c r="A16" s="11">
         <v>43532</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="27" t="s">
-        <v>31</v>
+      <c r="F16" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="5"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:10">
-      <c r="A17" s="15">
+      <c r="A17" s="16">
         <v>43535</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>31</v>
+      <c r="B17" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1754,31 +1796,35 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="5"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="6">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:10">
-      <c r="A18" s="17">
+      <c r="A18" s="18">
         <v>43565</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="18" t="s">
-        <v>32</v>
+      <c r="D18" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A19" s="15">
+      <c r="I18" s="37"/>
+      <c r="J18" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:10">
+      <c r="A19" s="16">
         <v>43570</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>33</v>
+      <c r="B19" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1786,29 +1832,35 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="32"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A20" s="10">
+      <c r="I19" s="37"/>
+      <c r="J19" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A20" s="11">
         <v>43574</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="27" t="s">
-        <v>34</v>
+      <c r="F20" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="32"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A21" s="15">
+      <c r="I20" s="37"/>
+      <c r="J20" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:10">
+      <c r="A21" s="16">
         <v>43577</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>35</v>
+      <c r="B21" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1816,46 +1868,55 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A22" s="17">
+      <c r="I21" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:10">
+      <c r="A22" s="18">
         <v>43579</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="18" t="s">
-        <v>37</v>
+      <c r="D22" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="33"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A23" s="10">
+      <c r="I22" s="38"/>
+      <c r="J22" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A23" s="11">
         <v>43581</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="27" t="s">
-        <v>38</v>
+      <c r="F23" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="33"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A24" s="15">
+      <c r="I23" s="38"/>
+      <c r="J23" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:10">
+      <c r="A24" s="16">
         <v>43591</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>39</v>
+      <c r="B24" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1863,46 +1924,55 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A25" s="17">
+      <c r="I24" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:10">
+      <c r="A25" s="18">
         <v>43593</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="18" t="s">
-        <v>41</v>
+      <c r="D25" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="34"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A26" s="10">
+      <c r="I25" s="39"/>
+      <c r="J25" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A26" s="11">
         <v>43595</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="27" t="s">
-        <v>42</v>
+      <c r="F26" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A27" s="15">
+      <c r="I26" s="39"/>
+      <c r="J26" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:10">
+      <c r="A27" s="16">
         <v>43598</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>43</v>
+      <c r="B27" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1910,46 +1980,55 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A28" s="17">
+      <c r="I27" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:10">
+      <c r="A28" s="18">
         <v>43600</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="18" t="s">
-        <v>45</v>
+      <c r="D28" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="35"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A29" s="10">
+      <c r="I28" s="40"/>
+      <c r="J28" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A29" s="11">
         <v>43602</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="27" t="s">
-        <v>46</v>
+      <c r="F29" s="30" t="s">
+        <v>38</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="35"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A30" s="15">
+      <c r="I29" s="40"/>
+      <c r="J29" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:10">
+      <c r="A30" s="16">
         <v>43605</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>47</v>
+      <c r="B30" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1957,46 +2036,53 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A31" s="17">
+      <c r="I30" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:10">
+      <c r="A31" s="18">
         <v>43607</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="18" t="s">
-        <v>49</v>
+      <c r="D31" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A32" s="10">
+      <c r="I31" s="38"/>
+      <c r="J31" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A32" s="11">
         <v>43609</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="27" t="s">
-        <v>50</v>
+      <c r="F32" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A33" s="15">
+      <c r="I32" s="38"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:10">
+      <c r="A33" s="16">
         <v>43612</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>51</v>
+      <c r="B33" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2004,46 +2090,55 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A34" s="17">
+      <c r="I33" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:10">
+      <c r="A34" s="18">
         <v>43614</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="18" t="s">
-        <v>53</v>
+      <c r="D34" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="34"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="70" spans="1:9">
-      <c r="A35" s="10">
+      <c r="I34" s="39"/>
+      <c r="J34" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="70" spans="1:10">
+      <c r="A35" s="11">
         <v>43616</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="27" t="s">
-        <v>54</v>
+      <c r="F35" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="34"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A36" s="15">
+      <c r="I35" s="39"/>
+      <c r="J35" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:10">
+      <c r="A36" s="16">
         <v>43619</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>55</v>
+      <c r="B36" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2051,31 +2146,37 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A37" s="17">
+      <c r="I36" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:10">
+      <c r="A37" s="18">
         <v>43621</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="18" t="s">
-        <v>57</v>
+      <c r="D37" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="35"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A38" s="15">
+      <c r="I37" s="40"/>
+      <c r="J37" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:10">
+      <c r="A38" s="16">
         <v>43626</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>58</v>
+      <c r="B38" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2083,42 +2184,51 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A39" s="17">
+      <c r="I38" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A39" s="18">
         <v>43628</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="18" t="s">
-        <v>60</v>
+      <c r="D39" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A40" s="10">
+      <c r="I39" s="38"/>
+      <c r="J39" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:10">
+      <c r="A40" s="11">
         <v>43630</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="27" t="s">
-        <v>61</v>
+      <c r="F40" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A41" s="19">
+      <c r="I40" s="38"/>
+      <c r="J40" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A41" s="20">
         <v>43631</v>
       </c>
       <c r="B41" s="4"/>
@@ -2126,18 +2236,21 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="30" t="s">
-        <v>62</v>
+      <c r="G41" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="H41" s="4"/>
-      <c r="I41" s="33"/>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A42" s="15">
+      <c r="I41" s="38"/>
+      <c r="J41" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:10">
+      <c r="A42" s="16">
         <v>43633</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>63</v>
+      <c r="B42" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2145,46 +2258,55 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A43" s="17">
+      <c r="I42" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A43" s="18">
         <v>43635</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="18" t="s">
-        <v>65</v>
+      <c r="D43" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="34"/>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A44" s="10">
+      <c r="I43" s="39"/>
+      <c r="J43" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A44" s="11">
         <v>43637</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="27" t="s">
-        <v>66</v>
+      <c r="F44" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="34"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A45" s="15">
+      <c r="I44" s="39"/>
+      <c r="J44" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:10">
+      <c r="A45" s="16">
         <v>43640</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>67</v>
+      <c r="B45" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2192,46 +2314,55 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A46" s="17">
+      <c r="I45" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A46" s="18">
         <v>43642</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="18" t="s">
-        <v>69</v>
+      <c r="D46" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="35"/>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="70" spans="1:9">
-      <c r="A47" s="10">
+      <c r="I46" s="40"/>
+      <c r="J46" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="70" spans="1:10">
+      <c r="A47" s="11">
         <v>43644</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="27" t="s">
-        <v>70</v>
+      <c r="F47" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="35"/>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A48" s="15">
+      <c r="I47" s="40"/>
+      <c r="J47" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:10">
+      <c r="A48" s="16">
         <v>43647</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>71</v>
+      <c r="B48" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2239,46 +2370,55 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A49" s="17">
+      <c r="I48" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="J48" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A49" s="18">
         <v>43649</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="18" t="s">
-        <v>73</v>
+      <c r="D49" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="33"/>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A50" s="10">
+      <c r="I49" s="38"/>
+      <c r="J49" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A50" s="11">
         <v>43651</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="27" t="s">
-        <v>74</v>
+      <c r="F50" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="33"/>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A51" s="15">
+      <c r="I50" s="38"/>
+      <c r="J50" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:10">
+      <c r="A51" s="16">
         <v>43654</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>75</v>
+      <c r="B51" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -2286,46 +2426,55 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A52" s="17">
+      <c r="I51" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="J51" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A52" s="18">
         <v>43656</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="18" t="s">
-        <v>77</v>
+      <c r="D52" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="34"/>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A53" s="10">
+      <c r="I52" s="39"/>
+      <c r="J52" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A53" s="11">
         <v>43658</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="27" t="s">
-        <v>78</v>
+      <c r="F53" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="34"/>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A54" s="15">
+      <c r="I53" s="39"/>
+      <c r="J53" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A54" s="16">
         <v>43661</v>
       </c>
-      <c r="B54" s="16" t="s">
-        <v>79</v>
+      <c r="B54" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2333,46 +2482,55 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A55" s="17">
+      <c r="I54" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J54" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A55" s="18">
         <v>43663</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="18" t="s">
-        <v>81</v>
+      <c r="D55" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="35"/>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A56" s="10">
+      <c r="I55" s="40"/>
+      <c r="J55" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A56" s="11">
         <v>43665</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="27" t="s">
-        <v>82</v>
+      <c r="F56" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="35"/>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A57" s="15">
+      <c r="I56" s="40"/>
+      <c r="J56" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A57" s="16">
         <v>43668</v>
       </c>
-      <c r="B57" s="20" t="s">
-        <v>83</v>
+      <c r="B57" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2380,46 +2538,55 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A58" s="17">
+      <c r="I57" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="J57" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="1:10">
+      <c r="A58" s="18">
         <v>43670</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="21" t="s">
-        <v>85</v>
+      <c r="D58" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="33"/>
-    </row>
-    <row r="59" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A59" s="10">
+      <c r="I58" s="38"/>
+      <c r="J58" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A59" s="11">
         <v>43672</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="27" t="s">
-        <v>86</v>
+      <c r="F59" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="33"/>
-    </row>
-    <row r="60" s="2" customFormat="1" ht="47" spans="1:9">
-      <c r="A60" s="15">
+      <c r="I59" s="38"/>
+      <c r="J59" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="47" spans="1:10">
+      <c r="A60" s="16">
         <v>43675</v>
       </c>
-      <c r="B60" s="20" t="s">
-        <v>87</v>
+      <c r="B60" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2427,61 +2594,73 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A61" s="12">
+      <c r="I60" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="J60" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" spans="1:10">
+      <c r="A61" s="13">
         <v>43676</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="22" t="s">
-        <v>89</v>
+      <c r="C61" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="34"/>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A62" s="17">
+      <c r="I61" s="39"/>
+      <c r="J61" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" spans="1:10">
+      <c r="A62" s="18">
         <v>43677</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="21" t="s">
-        <v>85</v>
+      <c r="D62" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="34"/>
-    </row>
-    <row r="63" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A63" s="10">
+      <c r="I62" s="39"/>
+      <c r="J62" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" spans="1:10">
+      <c r="A63" s="11">
         <v>43679</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="27" t="s">
-        <v>90</v>
+      <c r="F63" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="34"/>
-    </row>
-    <row r="64" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A64" s="15">
+      <c r="I63" s="39"/>
+      <c r="J63" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" spans="1:10">
+      <c r="A64" s="16">
         <v>43682</v>
       </c>
-      <c r="B64" s="20" t="s">
-        <v>91</v>
+      <c r="B64" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -2489,46 +2668,55 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A65" s="17">
+      <c r="I64" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J64" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" spans="1:10">
+      <c r="A65" s="18">
         <v>43684</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="21" t="s">
-        <v>85</v>
+      <c r="D65" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="33"/>
-    </row>
-    <row r="66" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A66" s="10">
+      <c r="I65" s="38"/>
+      <c r="J65" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" spans="1:10">
+      <c r="A66" s="11">
         <v>43686</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="27" t="s">
-        <v>90</v>
+      <c r="F66" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="33"/>
-    </row>
-    <row r="67" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A67" s="15">
+      <c r="I66" s="38"/>
+      <c r="J66" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" spans="1:10">
+      <c r="A67" s="16">
         <v>43689</v>
       </c>
-      <c r="B67" s="20" t="s">
-        <v>91</v>
+      <c r="B67" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -2536,46 +2724,55 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A68" s="17">
+      <c r="I67" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="J67" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" spans="1:10">
+      <c r="A68" s="18">
         <v>43691</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="21" t="s">
-        <v>85</v>
+      <c r="D68" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="34"/>
-    </row>
-    <row r="69" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A69" s="10">
+      <c r="I68" s="39"/>
+      <c r="J68" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" spans="1:10">
+      <c r="A69" s="11">
         <v>43693</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="27" t="s">
-        <v>90</v>
+      <c r="F69" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="34"/>
-    </row>
-    <row r="70" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A70" s="15">
+      <c r="I69" s="39"/>
+      <c r="J69" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" s="2" customFormat="1" spans="1:10">
+      <c r="A70" s="16">
         <v>43696</v>
       </c>
-      <c r="B70" s="20" t="s">
-        <v>91</v>
+      <c r="B70" s="42" t="s">
+        <v>86</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -2583,46 +2780,53 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A71" s="17">
+      <c r="I70" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="J70" s="41"/>
+    </row>
+    <row r="71" s="2" customFormat="1" spans="1:10">
+      <c r="A71" s="18">
         <v>43698</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="21" t="s">
-        <v>85</v>
+      <c r="D71" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="35"/>
-    </row>
-    <row r="72" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A72" s="10">
+      <c r="I71" s="40"/>
+      <c r="J71" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="1" spans="1:10">
+      <c r="A72" s="11">
         <v>43700</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="27" t="s">
-        <v>90</v>
+      <c r="F72" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="35"/>
-    </row>
-    <row r="73" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A73" s="15">
+      <c r="I72" s="40"/>
+      <c r="J72" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" s="2" customFormat="1" spans="1:10">
+      <c r="A73" s="16">
         <v>43703</v>
       </c>
-      <c r="B73" s="20" t="s">
-        <v>91</v>
+      <c r="B73" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2630,46 +2834,55 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A74" s="17">
+      <c r="I73" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="J73" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="1:10">
+      <c r="A74" s="18">
         <v>43705</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="21" t="s">
-        <v>85</v>
+      <c r="D74" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="33"/>
-    </row>
-    <row r="75" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A75" s="10">
+      <c r="I74" s="38"/>
+      <c r="J74" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="1:10">
+      <c r="A75" s="11">
         <v>43707</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="27" t="s">
-        <v>90</v>
+      <c r="F75" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="33"/>
-    </row>
-    <row r="76" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A76" s="15">
+      <c r="I75" s="38"/>
+      <c r="J75" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" spans="1:10">
+      <c r="A76" s="16">
         <v>43710</v>
       </c>
-      <c r="B76" s="20" t="s">
-        <v>91</v>
+      <c r="B76" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -2677,46 +2890,55 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A77" s="17">
+      <c r="I76" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" spans="1:10">
+      <c r="A77" s="18">
         <v>43712</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="21" t="s">
-        <v>85</v>
+      <c r="D77" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="34"/>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A78" s="10">
+      <c r="I77" s="39"/>
+      <c r="J77" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="1:10">
+      <c r="A78" s="11">
         <v>43714</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="27" t="s">
-        <v>90</v>
+      <c r="F78" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="35"/>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A79" s="15">
+      <c r="I78" s="40"/>
+      <c r="J78" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="1:10">
+      <c r="A79" s="16">
         <v>43717</v>
       </c>
-      <c r="B79" s="20" t="s">
-        <v>91</v>
+      <c r="B79" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -2724,46 +2946,53 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A80" s="17">
+      <c r="I79" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="J79" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" s="2" customFormat="1" spans="1:10">
+      <c r="A80" s="18">
         <v>43719</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="21" t="s">
-        <v>85</v>
+      <c r="D80" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="34"/>
-    </row>
-    <row r="81" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A81" s="10">
+      <c r="I80" s="39"/>
+      <c r="J80" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" spans="1:10">
+      <c r="A81" s="11">
         <v>43721</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="27" t="s">
-        <v>98</v>
+      <c r="F81" s="34" t="s">
+        <v>93</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="35"/>
-    </row>
-    <row r="82" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A82" s="15">
+      <c r="I81" s="40"/>
+      <c r="J81" s="41"/>
+    </row>
+    <row r="82" s="2" customFormat="1" spans="1:10">
+      <c r="A82" s="16">
         <v>43724</v>
       </c>
-      <c r="B82" s="20" t="s">
-        <v>91</v>
+      <c r="B82" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -2771,46 +3000,55 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A83" s="17">
+      <c r="I82" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="J82" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" s="2" customFormat="1" spans="1:10">
+      <c r="A83" s="18">
         <v>43726</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="21" t="s">
-        <v>85</v>
+      <c r="D83" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="34"/>
-    </row>
-    <row r="84" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A84" s="10">
+      <c r="I83" s="39"/>
+      <c r="J83" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" spans="1:10">
+      <c r="A84" s="11">
         <v>43728</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="27" t="s">
-        <v>90</v>
+      <c r="F84" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="34"/>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A85" s="15">
+      <c r="I84" s="39"/>
+      <c r="J84" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="1:10">
+      <c r="A85" s="16">
         <v>43731</v>
       </c>
-      <c r="B85" s="20" t="s">
-        <v>91</v>
+      <c r="B85" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -2818,46 +3056,55 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A86" s="17">
+      <c r="I85" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="J85" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" s="2" customFormat="1" spans="1:10">
+      <c r="A86" s="18">
         <v>43733</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-      <c r="D86" s="21" t="s">
-        <v>85</v>
+      <c r="D86" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="35"/>
-    </row>
-    <row r="87" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A87" s="10">
+      <c r="I86" s="40"/>
+      <c r="J86" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" s="2" customFormat="1" spans="1:10">
+      <c r="A87" s="11">
         <v>43735</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="27" t="s">
-        <v>90</v>
+      <c r="F87" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="35"/>
-    </row>
-    <row r="88" s="2" customFormat="1" ht="24" spans="1:9">
-      <c r="A88" s="15">
+      <c r="I87" s="40"/>
+      <c r="J87" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" s="2" customFormat="1" spans="1:10">
+      <c r="A88" s="16">
         <v>43738</v>
       </c>
-      <c r="B88" s="20" t="s">
-        <v>91</v>
+      <c r="B88" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -2865,20 +3112,24 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="35"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="6">
+        <v>84</v>
+      </c>
     </row>
     <row r="89" ht="23.2" spans="1:9">
       <c r="A89" s="3">
         <v>43739</v>
       </c>
-      <c r="I89" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="I89" s="41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" ht="23.2" spans="1:9">
       <c r="A90" s="3">
         <v>43745</v>
       </c>
+      <c r="I90" s="41"/>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="3">
@@ -3306,8 +3557,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="I15:J15"/>
+  <mergeCells count="23">
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="I27:I29"/>
@@ -3331,10 +3581,6 @@
     <mergeCell ref="I82:I84"/>
     <mergeCell ref="I85:I88"/>
     <mergeCell ref="I89:I90"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/锻炼日程.xlsx
+++ b/锻炼日程.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>星期一</t>
   </si>
@@ -277,37 +277,28 @@
     <t>第十六周</t>
   </si>
   <si>
-    <t>胸，不去</t>
+    <t>胸背腿</t>
   </si>
   <si>
     <t>第十七周</t>
   </si>
   <si>
-    <t>胸背腿</t>
-  </si>
-  <si>
     <t>腿腹背</t>
   </si>
   <si>
     <t>第十八周</t>
   </si>
   <si>
-    <t>第二十周</t>
-  </si>
-  <si>
-    <t>第二十一周</t>
-  </si>
-  <si>
-    <t>中秋回家</t>
-  </si>
-  <si>
-    <t>第二十二周</t>
-  </si>
-  <si>
-    <t>第二十三周</t>
-  </si>
-  <si>
-    <t>国庆</t>
+    <t>第十九周</t>
+  </si>
+  <si>
+    <t>胸背</t>
+  </si>
+  <si>
+    <t>间隔了一个半月了</t>
+  </si>
+  <si>
+    <t>热身</t>
   </si>
 </sst>
 </file>
@@ -315,11 +306,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -358,16 +349,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -382,10 +365,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,23 +395,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,8 +433,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,39 +465,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -581,25 +572,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,13 +620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,37 +638,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,43 +686,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +710,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,19 +734,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,7 +773,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,51 +847,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -857,156 +857,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,7 +1007,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1141,9 +1132,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1465,12 +1453,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J175"/>
+  <dimension ref="A1:J506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6428571428571" defaultRowHeight="26"/>
@@ -2768,14 +2756,14 @@
       </c>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:10">
-      <c r="A70" s="16">
-        <v>43696</v>
-      </c>
-      <c r="B70" s="42" t="s">
+      <c r="A70" s="18">
+        <v>43698</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -2783,106 +2771,110 @@
       <c r="I70" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="J70" s="41"/>
+      <c r="J70" s="6">
+        <v>68</v>
+      </c>
     </row>
     <row r="71" s="2" customFormat="1" spans="1:10">
-      <c r="A71" s="18">
-        <v>43698</v>
+      <c r="A71" s="11">
+        <v>43700</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="40"/>
       <c r="J71" s="6">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" spans="1:10">
-      <c r="A72" s="11">
-        <v>43700</v>
-      </c>
-      <c r="B72" s="4"/>
+      <c r="A72" s="16">
+        <v>43703</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="30" t="s">
-        <v>89</v>
-      </c>
+      <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="40"/>
+      <c r="I72" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="J72" s="6">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" spans="1:10">
-      <c r="A73" s="16">
-        <v>43703</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>83</v>
-      </c>
+      <c r="A73" s="18">
+        <v>43705</v>
+      </c>
+      <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="D73" s="23" t="s">
+        <v>77</v>
+      </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="38" t="s">
-        <v>90</v>
-      </c>
+      <c r="I73" s="38"/>
       <c r="J73" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" spans="1:10">
-      <c r="A74" s="18">
-        <v>43705</v>
+      <c r="A74" s="11">
+        <v>43707</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="23" t="s">
-        <v>77</v>
-      </c>
+      <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
+      <c r="F74" s="30" t="s">
+        <v>82</v>
+      </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="38"/>
       <c r="J74" s="6">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" spans="1:10">
-      <c r="A75" s="11">
-        <v>43707</v>
-      </c>
-      <c r="B75" s="4"/>
+      <c r="A75" s="16">
+        <v>43710</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="30" t="s">
-        <v>82</v>
-      </c>
+      <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="38"/>
+      <c r="I75" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="J75" s="6">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" spans="1:10">
       <c r="A76" s="16">
-        <v>43710</v>
+        <v>43724</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -2890,674 +2882,2167 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="39" t="s">
-        <v>91</v>
-      </c>
+      <c r="I76" s="39"/>
       <c r="J76" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" s="2" customFormat="1" spans="1:10">
-      <c r="A77" s="18">
-        <v>43712</v>
-      </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="6">
         <v>74</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" spans="1:10">
-      <c r="A78" s="11">
-        <v>43714</v>
-      </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" s="2" customFormat="1" spans="1:10">
-      <c r="A79" s="16">
-        <v>43717</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="38" t="s">
+    <row r="77" spans="2:2">
+      <c r="B77" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J79" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" s="2" customFormat="1" spans="1:10">
-      <c r="A80" s="18">
-        <v>43719</v>
-      </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" s="2" customFormat="1" spans="1:10">
-      <c r="A81" s="11">
-        <v>43721</v>
-      </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="34" t="s">
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3">
+        <v>43768</v>
+      </c>
+      <c r="D78" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="41"/>
-    </row>
-    <row r="82" s="2" customFormat="1" spans="1:10">
-      <c r="A82" s="16">
-        <v>43724</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="J82" s="6">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" s="2" customFormat="1" spans="1:10">
-      <c r="A83" s="18">
-        <v>43726</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" s="2" customFormat="1" spans="1:10">
-      <c r="A84" s="11">
-        <v>43728</v>
-      </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" s="2" customFormat="1" spans="1:10">
-      <c r="A85" s="16">
-        <v>43731</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="J85" s="6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" s="2" customFormat="1" spans="1:10">
-      <c r="A86" s="18">
-        <v>43733</v>
-      </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="6">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" s="2" customFormat="1" spans="1:10">
-      <c r="A87" s="11">
-        <v>43735</v>
-      </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" s="2" customFormat="1" spans="1:10">
-      <c r="A88" s="16">
-        <v>43738</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" ht="23.2" spans="1:9">
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="3">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="3">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="3">
+        <v>43771</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="3">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="3">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="3">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="3">
+        <v>43775</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="3">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="3">
+        <v>43777</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="3">
+        <v>43778</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
       <c r="A89" s="3">
-        <v>43739</v>
-      </c>
-      <c r="I89" s="41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" ht="23.2" spans="1:9">
+        <v>43779</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" s="3">
-        <v>43745</v>
-      </c>
-      <c r="I90" s="41"/>
+        <v>43780</v>
+      </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="3">
-        <v>43746</v>
+        <v>43781</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="3">
-        <v>43747</v>
+        <v>43782</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="3">
-        <v>43748</v>
+        <v>43783</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="3">
-        <v>43749</v>
+        <v>43784</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="3">
-        <v>43750</v>
+        <v>43785</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="3">
-        <v>43751</v>
+        <v>43786</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="3">
-        <v>43752</v>
+        <v>43787</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="3">
-        <v>43753</v>
+        <v>43788</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="3">
-        <v>43754</v>
+        <v>43789</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="3">
-        <v>43755</v>
+        <v>43790</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="3">
-        <v>43756</v>
+        <v>43791</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="3">
-        <v>43757</v>
+        <v>43792</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="3">
-        <v>43758</v>
+        <v>43793</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="3">
-        <v>43759</v>
+        <v>43794</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="3">
-        <v>43760</v>
+        <v>43795</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="3">
-        <v>43761</v>
+        <v>43796</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="3">
-        <v>43762</v>
+        <v>43797</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="3">
-        <v>43763</v>
+        <v>43798</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="3">
-        <v>43764</v>
+        <v>43799</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="3">
-        <v>43765</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="3">
-        <v>43766</v>
+        <v>43801</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="3">
-        <v>43767</v>
+        <v>43802</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="3">
-        <v>43768</v>
+        <v>43803</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="3">
-        <v>43769</v>
+        <v>43804</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="3">
-        <v>43770</v>
+        <v>43805</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="3">
-        <v>43771</v>
+        <v>43806</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="3">
-        <v>43772</v>
+        <v>43807</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="3">
-        <v>43773</v>
+        <v>43808</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="3">
-        <v>43774</v>
+        <v>43809</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="3">
-        <v>43775</v>
+        <v>43810</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="3">
-        <v>43776</v>
+        <v>43811</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="3">
-        <v>43777</v>
+        <v>43812</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="3">
-        <v>43778</v>
+        <v>43813</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="3">
-        <v>43779</v>
+        <v>43814</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="3">
-        <v>43780</v>
+        <v>43815</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="3">
-        <v>43781</v>
+        <v>43816</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="3">
-        <v>43782</v>
+        <v>43817</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="3">
-        <v>43783</v>
+        <v>43818</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="3">
-        <v>43784</v>
+        <v>43819</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="3">
-        <v>43785</v>
+        <v>43820</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="3">
-        <v>43786</v>
+        <v>43821</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="3">
-        <v>43787</v>
+        <v>43822</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="3">
-        <v>43788</v>
+        <v>43823</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="3">
-        <v>43789</v>
+        <v>43824</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="3">
-        <v>43790</v>
+        <v>43825</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="3">
-        <v>43791</v>
+        <v>43826</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="3">
-        <v>43792</v>
+        <v>43827</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="3">
-        <v>43793</v>
+        <v>43828</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="3">
-        <v>43794</v>
+        <v>43829</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="3">
-        <v>43795</v>
+        <v>43830</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="3">
-        <v>43796</v>
+        <v>43831</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3">
-        <v>43797</v>
+        <v>43832</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="3">
-        <v>43798</v>
+        <v>43833</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="3">
-        <v>43799</v>
+        <v>43834</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="3">
-        <v>43800</v>
+        <v>43835</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="3">
-        <v>43801</v>
+        <v>43836</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="3">
-        <v>43802</v>
+        <v>43837</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="3">
-        <v>43803</v>
+        <v>43838</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="3">
-        <v>43804</v>
+        <v>43839</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="3">
-        <v>43805</v>
+        <v>43840</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="3">
-        <v>43806</v>
+        <v>43841</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="3">
-        <v>43807</v>
+        <v>43842</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="3">
-        <v>43808</v>
+        <v>43843</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="3">
-        <v>43809</v>
+        <v>43844</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="3">
-        <v>43810</v>
+        <v>43845</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="3">
-        <v>43811</v>
+        <v>43846</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="3">
-        <v>43812</v>
+        <v>43847</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="3">
-        <v>43813</v>
+        <v>43848</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="3">
-        <v>43814</v>
+        <v>43849</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="3">
-        <v>43815</v>
+        <v>43850</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="3">
-        <v>43816</v>
+        <v>43851</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="3">
-        <v>43817</v>
+        <v>43852</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="3">
-        <v>43818</v>
+        <v>43853</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="3">
-        <v>43819</v>
+        <v>43854</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3">
-        <v>43820</v>
+        <v>43855</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="3">
-        <v>43821</v>
+        <v>43856</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3">
-        <v>43822</v>
+        <v>43857</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="3">
-        <v>43823</v>
+        <v>43858</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="3">
-        <v>43824</v>
+        <v>43859</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="3">
-        <v>43825</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="3">
-        <v>43826</v>
+        <v>43861</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="3">
-        <v>43827</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="3">
-        <v>43828</v>
+        <v>43863</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="3">
-        <v>43829</v>
+        <v>43864</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="3">
-        <v>43830</v>
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="3">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="3">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="3">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="3">
+        <v>43869</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="3">
+        <v>43870</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="3">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="3">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="3">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="3">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="3">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="3">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="3">
+        <v>43877</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="3">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="3">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="3">
+        <v>43880</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="3">
+        <v>43881</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="3">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="3">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="3">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="3">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="3">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="3">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="3">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="3">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="3">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="3">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="3">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="3">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="3">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="3">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="3">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="3">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="3">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="3">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="3">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="3">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="3">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="3">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="3">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="3">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="3">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="3">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="3">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="3">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="3">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="3">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="3">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="3">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="3">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="3">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="3">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="3">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="3">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="3">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="3">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="3">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="3">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="3">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="3">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="3">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="3">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="3">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="3">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="3">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="3">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="3">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="3">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="3">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="3">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="3">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="3">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="3">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="3">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="3">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="3">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="3">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="3">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="3">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="3">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="3">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="3">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="3">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="3">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="3">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="3">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="3">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="3">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="3">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="3">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="3">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="3">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="3">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="3">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="3">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="3">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="3">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="3">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="3">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="3">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="3">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="3">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="3">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="3">
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="3">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="3">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="3">
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="3">
+        <v>43972</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="3">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="3">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="3">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="3">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="3">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="3">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="3">
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="3">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="3">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="3">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="3">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="3">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="3">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="3">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="3">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="3">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="3">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="3">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="3">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="3">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="3">
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="3">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="3">
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="3">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="3">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="3">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="3">
+        <v>43999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="3">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="3">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="3">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="3">
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="3">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="3">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="3">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="3">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="3">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="3">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="3">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="3">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="3">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="3">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="3">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="3">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="3">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="3">
+        <v>44017</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="3">
+        <v>44018</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="3">
+        <v>44019</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="3">
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="3">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="3">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="3">
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="3">
+        <v>44024</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="3">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="3">
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="3">
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="3">
+        <v>44028</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="3">
+        <v>44029</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="3">
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="3">
+        <v>44031</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="3">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="3">
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="3">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="3">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="3">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="3">
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="3">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="3">
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="3">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="3">
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="3">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="3">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="3">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="3">
+        <v>44045</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="3">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="3">
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="3">
+        <v>44048</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="3">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="3">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="3">
+        <v>44051</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="3">
+        <v>44052</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="3">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="3">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="3">
+        <v>44055</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="3">
+        <v>44056</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="3">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="3">
+        <v>44058</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="3">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="3">
+        <v>44060</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="3">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="3">
+        <v>44062</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="3">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="3">
+        <v>44064</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="3">
+        <v>44065</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="3">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="3">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="3">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="3">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="3">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="3">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="3">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="3">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="3">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="3">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="3">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="3">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="3">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="3">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="3">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="3">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="3">
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="3">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="3">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="3">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="3">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="3">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="3">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="3">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="3">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="3">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="3">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="3">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="3">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="3">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="3">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="3">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="3">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="3">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="3">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="3">
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="3">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="3">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="3">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="3">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="3">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="3">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="3">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="3">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="3">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="3">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="3">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="3">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="3">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="3">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="3">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="3">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="3">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="3">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="3">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="3">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="3">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="3">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="3">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="3">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="3">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="3">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="3">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="3">
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="3">
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="3">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="3">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="3">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="3">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="3">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="3">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="3">
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="3">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="3">
+        <v>44139</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="3">
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="3">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="3">
+        <v>44142</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="3">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="3">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="3">
+        <v>44145</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="3">
+        <v>44146</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="3">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="3">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="3">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="3">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="3">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="3">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="3">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="3">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="3">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="3">
+        <v>44156</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="3">
+        <v>44157</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="3">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="3">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="3">
+        <v>44160</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="3">
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="3">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="3">
+        <v>44163</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="3">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="3">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="3">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="3">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="3">
+        <v>44168</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="3">
+        <v>44169</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="3">
+        <v>44170</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="3">
+        <v>44171</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="3">
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="3">
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="3">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="3">
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="3">
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="3">
+        <v>44178</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="3">
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="3">
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="3">
+        <v>44181</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="3">
+        <v>44182</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="3">
+        <v>44183</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="3">
+        <v>44184</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="3">
+        <v>44185</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="3">
+        <v>44186</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="3">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="3">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="3">
+        <v>44189</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="3">
+        <v>44190</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="3">
+        <v>44191</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="3">
+        <v>44192</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="3">
+        <v>44193</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="3">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="3">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="3">
+        <v>44196</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="20">
+    <mergeCell ref="B77:H77"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="I27:I29"/>
@@ -3574,13 +5059,9 @@
     <mergeCell ref="I60:I63"/>
     <mergeCell ref="I64:I66"/>
     <mergeCell ref="I67:I69"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="I85:I88"/>
-    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="I75:I76"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/锻炼日程.xlsx
+++ b/锻炼日程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020"/>
+    <workbookView windowWidth="24800" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,11 +306,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -342,13 +342,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -358,7 +351,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,44 +443,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -418,16 +450,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,37 +474,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,31 +566,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,13 +608,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,13 +686,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,19 +710,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,85 +740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,6 +778,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -793,15 +802,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -813,6 +813,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,161 +857,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1453,12 +1453,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J506"/>
+  <dimension ref="A1:J499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6428571428571" defaultRowHeight="26"/>
@@ -2892,2151 +2892,2131 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:10">
       <c r="A78" s="3">
         <v>43768</v>
       </c>
       <c r="D78" s="23" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="J78" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="3">
-        <v>43769</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>43770</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J79" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="3">
-        <v>43770</v>
+        <v>43773</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" s="6">
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="3">
-        <v>43771</v>
+        <v>43778</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="3">
-        <v>43772</v>
+        <v>43779</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="3">
-        <v>43773</v>
+        <v>43780</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="3">
-        <v>43774</v>
+        <v>43781</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="3">
-        <v>43775</v>
+        <v>43782</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="3">
-        <v>43776</v>
+        <v>43783</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="3">
-        <v>43777</v>
+        <v>43784</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="3">
-        <v>43778</v>
+        <v>43785</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="3">
-        <v>43779</v>
+        <v>43786</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="3">
-        <v>43780</v>
+        <v>43787</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="3">
-        <v>43781</v>
+        <v>43788</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="3">
-        <v>43782</v>
+        <v>43789</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="3">
-        <v>43783</v>
+        <v>43790</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="3">
-        <v>43784</v>
+        <v>43791</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="3">
-        <v>43785</v>
+        <v>43792</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="3">
-        <v>43786</v>
+        <v>43793</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="3">
-        <v>43787</v>
+        <v>43794</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="3">
-        <v>43788</v>
+        <v>43795</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="3">
-        <v>43789</v>
+        <v>43796</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="3">
-        <v>43790</v>
+        <v>43797</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="3">
-        <v>43791</v>
+        <v>43798</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="3">
-        <v>43792</v>
+        <v>43799</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="3">
-        <v>43793</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="3">
-        <v>43794</v>
+        <v>43801</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="3">
-        <v>43795</v>
+        <v>43802</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="3">
-        <v>43796</v>
+        <v>43803</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="3">
-        <v>43797</v>
+        <v>43804</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="3">
-        <v>43798</v>
+        <v>43805</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="3">
-        <v>43799</v>
+        <v>43806</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="3">
-        <v>43800</v>
+        <v>43807</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="3">
-        <v>43801</v>
+        <v>43808</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="3">
-        <v>43802</v>
+        <v>43809</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="3">
-        <v>43803</v>
+        <v>43810</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="3">
-        <v>43804</v>
+        <v>43811</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="3">
-        <v>43805</v>
+        <v>43812</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="3">
-        <v>43806</v>
+        <v>43813</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="3">
-        <v>43807</v>
+        <v>43814</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="3">
-        <v>43808</v>
+        <v>43815</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="3">
-        <v>43809</v>
+        <v>43816</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="3">
-        <v>43810</v>
+        <v>43817</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="3">
-        <v>43811</v>
+        <v>43818</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="3">
-        <v>43812</v>
+        <v>43819</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="3">
-        <v>43813</v>
+        <v>43820</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="3">
-        <v>43814</v>
+        <v>43821</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="3">
-        <v>43815</v>
+        <v>43822</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="3">
-        <v>43816</v>
+        <v>43823</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="3">
-        <v>43817</v>
+        <v>43824</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="3">
-        <v>43818</v>
+        <v>43825</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="3">
-        <v>43819</v>
+        <v>43826</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="3">
-        <v>43820</v>
+        <v>43827</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="3">
-        <v>43821</v>
+        <v>43828</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="3">
-        <v>43822</v>
+        <v>43829</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="3">
-        <v>43823</v>
+        <v>43830</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="3">
-        <v>43824</v>
+        <v>43831</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="3">
-        <v>43825</v>
+        <v>43832</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="3">
-        <v>43826</v>
+        <v>43833</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="3">
-        <v>43827</v>
+        <v>43834</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="3">
-        <v>43828</v>
+        <v>43835</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="3">
-        <v>43829</v>
+        <v>43836</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="3">
-        <v>43830</v>
+        <v>43837</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="3">
-        <v>43831</v>
+        <v>43838</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3">
-        <v>43832</v>
+        <v>43839</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="3">
-        <v>43833</v>
+        <v>43840</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="3">
-        <v>43834</v>
+        <v>43841</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="3">
-        <v>43835</v>
+        <v>43842</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="3">
-        <v>43836</v>
+        <v>43843</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="3">
-        <v>43837</v>
+        <v>43844</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="3">
-        <v>43838</v>
+        <v>43845</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="3">
-        <v>43839</v>
+        <v>43846</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="3">
-        <v>43840</v>
+        <v>43847</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="3">
-        <v>43841</v>
+        <v>43848</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="3">
-        <v>43842</v>
+        <v>43849</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="3">
-        <v>43843</v>
+        <v>43850</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="3">
-        <v>43844</v>
+        <v>43851</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="3">
-        <v>43845</v>
+        <v>43852</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="3">
-        <v>43846</v>
+        <v>43853</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="3">
-        <v>43847</v>
+        <v>43854</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="3">
-        <v>43848</v>
+        <v>43855</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="3">
-        <v>43849</v>
+        <v>43856</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="3">
-        <v>43850</v>
+        <v>43857</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="3">
-        <v>43851</v>
+        <v>43858</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="3">
-        <v>43852</v>
+        <v>43859</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="3">
-        <v>43853</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="3">
-        <v>43854</v>
+        <v>43861</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3">
-        <v>43855</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="3">
-        <v>43856</v>
+        <v>43863</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3">
-        <v>43857</v>
+        <v>43864</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="3">
-        <v>43858</v>
+        <v>43865</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="3">
-        <v>43859</v>
+        <v>43866</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="3">
-        <v>43860</v>
+        <v>43867</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="3">
-        <v>43861</v>
+        <v>43868</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="3">
-        <v>43862</v>
+        <v>43869</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="3">
-        <v>43863</v>
+        <v>43870</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="3">
-        <v>43864</v>
+        <v>43871</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="3">
-        <v>43865</v>
+        <v>43872</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="3">
-        <v>43866</v>
+        <v>43873</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="3">
-        <v>43867</v>
+        <v>43874</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="3">
-        <v>43868</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="3">
-        <v>43869</v>
+        <v>43876</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="3">
-        <v>43870</v>
+        <v>43877</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="3">
-        <v>43871</v>
+        <v>43878</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="3">
-        <v>43872</v>
+        <v>43879</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="3">
-        <v>43873</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="3">
-        <v>43874</v>
+        <v>43881</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="3">
-        <v>43875</v>
+        <v>43882</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="3">
-        <v>43876</v>
+        <v>43883</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="3">
-        <v>43877</v>
+        <v>43884</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="3">
-        <v>43878</v>
+        <v>43885</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="3">
-        <v>43879</v>
+        <v>43886</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="3">
-        <v>43880</v>
+        <v>43887</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="3">
-        <v>43881</v>
+        <v>43888</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="3">
-        <v>43882</v>
+        <v>43889</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="3">
-        <v>43883</v>
+        <v>43890</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="3">
-        <v>43884</v>
+        <v>43891</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="3">
-        <v>43885</v>
+        <v>43892</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="3">
-        <v>43886</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="3">
-        <v>43887</v>
+        <v>43894</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="3">
-        <v>43888</v>
+        <v>43895</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="3">
-        <v>43889</v>
+        <v>43896</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="3">
-        <v>43890</v>
+        <v>43897</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="3">
-        <v>43891</v>
+        <v>43898</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="3">
-        <v>43892</v>
+        <v>43899</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="3">
-        <v>43893</v>
+        <v>43900</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="3">
-        <v>43894</v>
+        <v>43901</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="3">
-        <v>43895</v>
+        <v>43902</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="3">
-        <v>43896</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="3">
-        <v>43897</v>
+        <v>43904</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="3">
-        <v>43898</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="3">
-        <v>43899</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="3">
-        <v>43900</v>
+        <v>43907</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="3">
-        <v>43901</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="3">
-        <v>43902</v>
+        <v>43909</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="3">
-        <v>43903</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="3">
-        <v>43904</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="3">
-        <v>43905</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="3">
-        <v>43906</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="3">
-        <v>43907</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="3">
-        <v>43908</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="3">
-        <v>43909</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="3">
-        <v>43910</v>
+        <v>43917</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="3">
-        <v>43911</v>
+        <v>43918</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="3">
-        <v>43912</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="3">
-        <v>43913</v>
+        <v>43920</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="3">
-        <v>43914</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="3">
-        <v>43915</v>
+        <v>43922</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="3">
-        <v>43916</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="3">
-        <v>43917</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="3">
-        <v>43918</v>
+        <v>43925</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="3">
-        <v>43919</v>
+        <v>43926</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="3">
-        <v>43920</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="3">
-        <v>43921</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="3">
-        <v>43922</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="3">
-        <v>43923</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="3">
-        <v>43924</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="3">
-        <v>43925</v>
+        <v>43932</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="3">
-        <v>43926</v>
+        <v>43933</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="3">
-        <v>43927</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="3">
-        <v>43928</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="3">
-        <v>43929</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="3">
-        <v>43930</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="3">
-        <v>43931</v>
+        <v>43938</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="3">
-        <v>43932</v>
+        <v>43939</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="3">
-        <v>43933</v>
+        <v>43940</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="3">
-        <v>43934</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="3">
-        <v>43935</v>
+        <v>43942</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="3">
-        <v>43936</v>
+        <v>43943</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="3">
-        <v>43937</v>
+        <v>43944</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="3">
-        <v>43938</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="3">
-        <v>43939</v>
+        <v>43946</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="3">
-        <v>43940</v>
+        <v>43947</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="3">
-        <v>43941</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="3">
-        <v>43942</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="3">
-        <v>43943</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="3">
-        <v>43944</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="3">
-        <v>43945</v>
+        <v>43952</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="3">
-        <v>43946</v>
+        <v>43953</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="3">
-        <v>43947</v>
+        <v>43954</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="3">
-        <v>43948</v>
+        <v>43955</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="3">
-        <v>43949</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="3">
-        <v>43950</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="3">
-        <v>43951</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="3">
-        <v>43952</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="3">
-        <v>43953</v>
+        <v>43960</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="3">
-        <v>43954</v>
+        <v>43961</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="3">
-        <v>43955</v>
+        <v>43962</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="3">
-        <v>43956</v>
+        <v>43963</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="3">
-        <v>43957</v>
+        <v>43964</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="3">
-        <v>43958</v>
+        <v>43965</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="3">
-        <v>43959</v>
+        <v>43966</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="3">
-        <v>43960</v>
+        <v>43967</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="3">
-        <v>43961</v>
+        <v>43968</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="3">
-        <v>43962</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="3">
-        <v>43963</v>
+        <v>43970</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="3">
-        <v>43964</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="3">
-        <v>43965</v>
+        <v>43972</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="3">
-        <v>43966</v>
+        <v>43973</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="3">
-        <v>43967</v>
+        <v>43974</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="3">
-        <v>43968</v>
+        <v>43975</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="3">
-        <v>43969</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="3">
-        <v>43970</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="3">
-        <v>43971</v>
+        <v>43978</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="3">
-        <v>43972</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="3">
-        <v>43974</v>
+        <v>43981</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="3">
-        <v>43975</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="3">
-        <v>43976</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="3">
-        <v>43977</v>
+        <v>43984</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="3">
-        <v>43978</v>
+        <v>43985</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="3">
-        <v>43979</v>
+        <v>43986</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="3">
-        <v>43981</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="3">
-        <v>43982</v>
+        <v>43989</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="3">
-        <v>43983</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="3">
-        <v>43984</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="3">
-        <v>43985</v>
+        <v>43992</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="3">
-        <v>43986</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="3">
-        <v>43987</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="3">
-        <v>43988</v>
+        <v>43995</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="3">
-        <v>43989</v>
+        <v>43996</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="3">
-        <v>43990</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="3">
-        <v>43991</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="3">
-        <v>43992</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="3">
-        <v>43993</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="3">
-        <v>43994</v>
+        <v>44001</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="3">
-        <v>43995</v>
+        <v>44002</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="3">
-        <v>43996</v>
+        <v>44003</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="3">
-        <v>43997</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="3">
-        <v>43998</v>
+        <v>44005</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="3">
-        <v>43999</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="3">
-        <v>44000</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="3">
-        <v>44001</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="3">
-        <v>44002</v>
+        <v>44009</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="3">
-        <v>44003</v>
+        <v>44010</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="3">
-        <v>44004</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="3">
-        <v>44005</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="3">
-        <v>44006</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="3">
-        <v>44007</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="3">
-        <v>44008</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="3">
-        <v>44009</v>
+        <v>44016</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="3">
-        <v>44010</v>
+        <v>44017</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="3">
-        <v>44011</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="3">
-        <v>44012</v>
+        <v>44019</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="3">
-        <v>44013</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="3">
-        <v>44014</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="3">
-        <v>44015</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="3">
-        <v>44016</v>
+        <v>44023</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="3">
-        <v>44017</v>
+        <v>44024</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="3">
-        <v>44018</v>
+        <v>44025</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="3">
-        <v>44019</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="3">
-        <v>44020</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="3">
-        <v>44021</v>
+        <v>44028</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="3">
-        <v>44022</v>
+        <v>44029</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="3">
-        <v>44023</v>
+        <v>44030</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="3">
-        <v>44024</v>
+        <v>44031</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="3">
-        <v>44025</v>
+        <v>44032</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="3">
-        <v>44026</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="3">
-        <v>44027</v>
+        <v>44034</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="3">
-        <v>44028</v>
+        <v>44035</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="3">
-        <v>44029</v>
+        <v>44036</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="3">
-        <v>44030</v>
+        <v>44037</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="3">
-        <v>44031</v>
+        <v>44038</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="3">
-        <v>44032</v>
+        <v>44039</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="3">
-        <v>44033</v>
+        <v>44040</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="3">
-        <v>44034</v>
+        <v>44041</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="3">
-        <v>44035</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="3">
-        <v>44036</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="3">
-        <v>44037</v>
+        <v>44044</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="3">
-        <v>44038</v>
+        <v>44045</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="3">
-        <v>44039</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="3">
-        <v>44040</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="3">
-        <v>44041</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="3">
-        <v>44042</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="3">
-        <v>44043</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="3">
-        <v>44044</v>
+        <v>44051</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="3">
-        <v>44045</v>
+        <v>44052</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="3">
-        <v>44046</v>
+        <v>44053</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="3">
-        <v>44047</v>
+        <v>44054</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="3">
-        <v>44048</v>
+        <v>44055</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="3">
-        <v>44049</v>
+        <v>44056</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="3">
-        <v>44050</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" s="3">
-        <v>44051</v>
+        <v>44058</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="3">
-        <v>44052</v>
+        <v>44059</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="3">
-        <v>44053</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="3">
-        <v>44054</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="3">
-        <v>44055</v>
+        <v>44062</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="3">
-        <v>44056</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="3">
-        <v>44057</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="3">
-        <v>44058</v>
+        <v>44065</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="3">
-        <v>44059</v>
+        <v>44066</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="3">
-        <v>44060</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" s="3">
-        <v>44061</v>
+        <v>44068</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="3">
-        <v>44062</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="3">
-        <v>44063</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="3">
-        <v>44064</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="3">
-        <v>44065</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="3">
-        <v>44066</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" s="3">
-        <v>44067</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="3">
-        <v>44068</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" s="3">
-        <v>44069</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="3">
-        <v>44070</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" s="3">
-        <v>44071</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="3">
-        <v>44072</v>
+        <v>44079</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" s="3">
-        <v>44073</v>
+        <v>44080</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="3">
-        <v>44074</v>
+        <v>44081</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" s="3">
-        <v>44075</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="3">
-        <v>44076</v>
+        <v>44083</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" s="3">
-        <v>44077</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="3">
-        <v>44078</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" s="3">
-        <v>44079</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="3">
-        <v>44080</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="3">
-        <v>44081</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="3">
-        <v>44082</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="3">
-        <v>44083</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="3">
-        <v>44084</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="3">
-        <v>44085</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="3">
-        <v>44086</v>
+        <v>44093</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" s="3">
-        <v>44087</v>
+        <v>44094</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="3">
-        <v>44088</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" s="3">
-        <v>44089</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="3">
-        <v>44090</v>
+        <v>44097</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" s="3">
-        <v>44091</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="3">
-        <v>44092</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" s="3">
-        <v>44093</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="3">
-        <v>44094</v>
+        <v>44101</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="3">
-        <v>44095</v>
+        <v>44102</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="3">
-        <v>44096</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" s="3">
-        <v>44097</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="3">
-        <v>44098</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" s="3">
-        <v>44099</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="3">
-        <v>44100</v>
+        <v>44107</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" s="3">
-        <v>44101</v>
+        <v>44108</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="3">
-        <v>44102</v>
+        <v>44109</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" s="3">
-        <v>44103</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="3">
-        <v>44104</v>
+        <v>44111</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" s="3">
-        <v>44105</v>
+        <v>44112</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="3">
-        <v>44106</v>
+        <v>44113</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" s="3">
-        <v>44107</v>
+        <v>44114</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="3">
-        <v>44108</v>
+        <v>44115</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" s="3">
-        <v>44109</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="3">
-        <v>44110</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="3">
-        <v>44111</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="3">
-        <v>44112</v>
+        <v>44119</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" s="3">
-        <v>44113</v>
+        <v>44120</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="3">
-        <v>44114</v>
+        <v>44121</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" s="3">
-        <v>44115</v>
+        <v>44122</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="3">
-        <v>44116</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" s="3">
-        <v>44117</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="3">
-        <v>44118</v>
+        <v>44125</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" s="3">
-        <v>44119</v>
+        <v>44126</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="3">
-        <v>44120</v>
+        <v>44127</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" s="3">
-        <v>44121</v>
+        <v>44128</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="3">
-        <v>44122</v>
+        <v>44129</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" s="3">
-        <v>44123</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="3">
-        <v>44124</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" s="3">
-        <v>44125</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="3">
-        <v>44126</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" s="3">
-        <v>44127</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="3">
-        <v>44128</v>
+        <v>44135</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="3">
-        <v>44129</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="3">
-        <v>44130</v>
+        <v>44137</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" s="3">
-        <v>44131</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" s="3">
-        <v>44132</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" s="3">
-        <v>44133</v>
+        <v>44140</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="3">
-        <v>44134</v>
+        <v>44141</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" s="3">
-        <v>44135</v>
+        <v>44142</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" s="3">
-        <v>44136</v>
+        <v>44143</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" s="3">
-        <v>44137</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="3">
-        <v>44138</v>
+        <v>44145</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="3">
-        <v>44139</v>
+        <v>44146</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="3">
-        <v>44140</v>
+        <v>44147</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" s="3">
-        <v>44141</v>
+        <v>44148</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" s="3">
-        <v>44142</v>
+        <v>44149</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" s="3">
-        <v>44143</v>
+        <v>44150</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="3">
-        <v>44144</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" s="3">
-        <v>44145</v>
+        <v>44152</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="3">
-        <v>44146</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" s="3">
-        <v>44147</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="3">
-        <v>44148</v>
+        <v>44155</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" s="3">
-        <v>44149</v>
+        <v>44156</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" s="3">
-        <v>44150</v>
+        <v>44157</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" s="3">
-        <v>44151</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="3">
-        <v>44152</v>
+        <v>44159</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" s="3">
-        <v>44153</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="3">
-        <v>44154</v>
+        <v>44161</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" s="3">
-        <v>44155</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="3">
-        <v>44156</v>
+        <v>44163</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" s="3">
-        <v>44157</v>
+        <v>44164</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="3">
-        <v>44158</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="3">
-        <v>44159</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="3">
-        <v>44160</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="3">
-        <v>44161</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="3">
-        <v>44162</v>
+        <v>44169</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="3">
-        <v>44163</v>
+        <v>44170</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="3">
-        <v>44164</v>
+        <v>44171</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" s="3">
-        <v>44165</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="3">
-        <v>44166</v>
+        <v>44173</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="3">
-        <v>44167</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="3">
-        <v>44168</v>
+        <v>44175</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" s="3">
-        <v>44169</v>
+        <v>44176</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="3">
-        <v>44170</v>
+        <v>44177</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="3">
-        <v>44171</v>
+        <v>44178</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="3">
-        <v>44172</v>
+        <v>44179</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="3">
-        <v>44173</v>
+        <v>44180</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="3">
-        <v>44174</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" s="3">
-        <v>44175</v>
+        <v>44182</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="3">
-        <v>44176</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" s="3">
-        <v>44177</v>
+        <v>44184</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="3">
-        <v>44178</v>
+        <v>44185</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" s="3">
-        <v>44179</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="3">
-        <v>44180</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" s="3">
-        <v>44181</v>
+        <v>44188</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="3">
-        <v>44182</v>
+        <v>44189</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="3">
-        <v>44183</v>
+        <v>44190</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="3">
-        <v>44184</v>
+        <v>44191</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" s="3">
-        <v>44185</v>
+        <v>44192</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="3">
-        <v>44186</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="3">
-        <v>44187</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="3">
-        <v>44188</v>
+        <v>44195</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" s="3">
-        <v>44189</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1">
-      <c r="A500" s="3">
-        <v>44190</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1">
-      <c r="A501" s="3">
-        <v>44191</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1">
-      <c r="A502" s="3">
-        <v>44192</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1">
-      <c r="A503" s="3">
-        <v>44193</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1">
-      <c r="A504" s="3">
-        <v>44194</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1">
-      <c r="A505" s="3">
-        <v>44195</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1">
-      <c r="A506" s="3">
         <v>44196</v>
       </c>
     </row>

--- a/锻炼日程.xlsx
+++ b/锻炼日程.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24800" windowHeight="11020"/>
+    <workbookView windowWidth="24860" windowHeight="10600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -306,11 +306,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -342,6 +342,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -351,37 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,32 +379,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,10 +403,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,17 +426,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,6 +443,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,7 +566,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +626,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,37 +680,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,31 +704,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,85 +740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,36 +783,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,150 +827,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1453,12 +1453,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J499"/>
+  <dimension ref="A1:J439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6428571428571" defaultRowHeight="26"/>
@@ -2893,7 +2893,7 @@
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="3">
+      <c r="A78" s="18">
         <v>43768</v>
       </c>
       <c r="D78" s="23" t="s">
@@ -2904,7 +2904,7 @@
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="3">
+      <c r="A79" s="11">
         <v>43770</v>
       </c>
       <c r="F79" s="30" t="s">
@@ -2915,7 +2915,7 @@
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="3">
+      <c r="A80" s="16">
         <v>43773</v>
       </c>
       <c r="B80" s="22" t="s">
@@ -2925,2104 +2925,1838 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="3">
-        <v>43778</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="3">
-        <v>43779</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="3">
-        <v>43780</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="3">
-        <v>43781</v>
+    <row r="81" s="2" customFormat="1" spans="1:10">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="16">
+        <v>43836</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J82" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="18">
+        <v>43838</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J83" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="11">
+        <v>43840</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J84" s="6">
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="3">
-        <v>43782</v>
+        <v>43841</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="3">
-        <v>43783</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="3">
-        <v>43784</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>43842</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="16">
+        <v>43843</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="3">
-        <v>43785</v>
+        <v>43845</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="3">
-        <v>43786</v>
+        <v>43846</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="3">
-        <v>43787</v>
+        <v>43847</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="3">
-        <v>43788</v>
+        <v>43848</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="3">
-        <v>43789</v>
+        <v>43849</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="3">
-        <v>43790</v>
+        <v>43850</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="3">
-        <v>43791</v>
+        <v>43851</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="3">
-        <v>43792</v>
+        <v>43852</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="3">
-        <v>43793</v>
+        <v>43853</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="3">
-        <v>43794</v>
+        <v>43854</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="3">
-        <v>43795</v>
+        <v>43855</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="3">
-        <v>43796</v>
+        <v>43856</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="3">
-        <v>43797</v>
+        <v>43857</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="3">
-        <v>43798</v>
+        <v>43858</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="3">
-        <v>43799</v>
+        <v>43859</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="3">
-        <v>43800</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="3">
-        <v>43801</v>
+        <v>43861</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="3">
-        <v>43802</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="3">
-        <v>43803</v>
+        <v>43863</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="3">
-        <v>43804</v>
+        <v>43864</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="3">
-        <v>43805</v>
+        <v>43865</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="3">
-        <v>43806</v>
+        <v>43866</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="3">
-        <v>43807</v>
+        <v>43867</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="3">
-        <v>43808</v>
+        <v>43868</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="3">
-        <v>43809</v>
+        <v>43869</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="3">
-        <v>43810</v>
+        <v>43870</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="3">
-        <v>43811</v>
+        <v>43871</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="3">
-        <v>43812</v>
+        <v>43872</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="3">
-        <v>43813</v>
+        <v>43873</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="3">
-        <v>43814</v>
+        <v>43874</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="3">
-        <v>43815</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="3">
-        <v>43816</v>
+        <v>43876</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="3">
-        <v>43817</v>
+        <v>43877</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="3">
-        <v>43818</v>
+        <v>43878</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="3">
-        <v>43819</v>
+        <v>43879</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="3">
-        <v>43820</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="3">
-        <v>43821</v>
+        <v>43881</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="3">
-        <v>43822</v>
+        <v>43882</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="3">
-        <v>43823</v>
+        <v>43883</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="3">
-        <v>43824</v>
+        <v>43884</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="3">
-        <v>43825</v>
+        <v>43885</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="3">
-        <v>43826</v>
+        <v>43886</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="3">
-        <v>43827</v>
+        <v>43887</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="3">
-        <v>43828</v>
+        <v>43888</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="3">
-        <v>43829</v>
+        <v>43889</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="3">
-        <v>43830</v>
+        <v>43890</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="3">
-        <v>43831</v>
+        <v>43891</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="3">
-        <v>43832</v>
+        <v>43892</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="3">
-        <v>43833</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="3">
-        <v>43834</v>
+        <v>43894</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="3">
-        <v>43835</v>
+        <v>43895</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="3">
-        <v>43836</v>
+        <v>43896</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="3">
-        <v>43837</v>
+        <v>43897</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="3">
-        <v>43838</v>
+        <v>43898</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3">
-        <v>43839</v>
+        <v>43899</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="3">
-        <v>43840</v>
+        <v>43900</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="3">
-        <v>43841</v>
+        <v>43901</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="3">
-        <v>43842</v>
+        <v>43902</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="3">
-        <v>43843</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="3">
-        <v>43844</v>
+        <v>43904</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="3">
-        <v>43845</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="3">
-        <v>43846</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="3">
-        <v>43847</v>
+        <v>43907</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="3">
-        <v>43848</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="3">
-        <v>43849</v>
+        <v>43909</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="3">
-        <v>43850</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="3">
-        <v>43851</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="3">
-        <v>43852</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="3">
-        <v>43853</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="3">
-        <v>43854</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="3">
-        <v>43855</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="3">
-        <v>43856</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="3">
-        <v>43857</v>
+        <v>43917</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="3">
-        <v>43858</v>
+        <v>43918</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="3">
-        <v>43859</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="3">
-        <v>43860</v>
+        <v>43920</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="3">
-        <v>43861</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3">
-        <v>43862</v>
+        <v>43922</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="3">
-        <v>43863</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3">
-        <v>43864</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="3">
-        <v>43865</v>
+        <v>43925</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="3">
-        <v>43866</v>
+        <v>43926</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="3">
-        <v>43867</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="3">
-        <v>43868</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="3">
-        <v>43869</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="3">
-        <v>43870</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="3">
-        <v>43871</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="3">
-        <v>43872</v>
+        <v>43932</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="3">
-        <v>43873</v>
+        <v>43933</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="3">
-        <v>43874</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="3">
-        <v>43875</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="3">
-        <v>43876</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="3">
-        <v>43877</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="3">
-        <v>43878</v>
+        <v>43938</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="3">
-        <v>43879</v>
+        <v>43939</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="3">
-        <v>43880</v>
+        <v>43940</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="3">
-        <v>43881</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="3">
-        <v>43882</v>
+        <v>43942</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="3">
-        <v>43883</v>
+        <v>43943</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="3">
-        <v>43884</v>
+        <v>43944</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="3">
-        <v>43885</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="3">
-        <v>43886</v>
+        <v>43946</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="3">
-        <v>43887</v>
+        <v>43947</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="3">
-        <v>43888</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="3">
-        <v>43889</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="3">
-        <v>43890</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="3">
-        <v>43891</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="3">
-        <v>43892</v>
+        <v>43952</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="3">
-        <v>43893</v>
+        <v>43953</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="3">
-        <v>43894</v>
+        <v>43954</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="3">
-        <v>43895</v>
+        <v>43955</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="3">
-        <v>43896</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="3">
-        <v>43897</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="3">
-        <v>43898</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="3">
-        <v>43899</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="3">
-        <v>43900</v>
+        <v>43960</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="3">
-        <v>43901</v>
+        <v>43961</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="3">
-        <v>43902</v>
+        <v>43962</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="3">
-        <v>43903</v>
+        <v>43963</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="3">
-        <v>43904</v>
+        <v>43964</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="3">
-        <v>43905</v>
+        <v>43965</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="3">
-        <v>43906</v>
+        <v>43966</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="3">
-        <v>43907</v>
+        <v>43967</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="3">
-        <v>43908</v>
+        <v>43968</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="3">
-        <v>43909</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="3">
-        <v>43910</v>
+        <v>43970</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="3">
-        <v>43911</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="3">
-        <v>43912</v>
+        <v>43972</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="3">
-        <v>43913</v>
+        <v>43973</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="3">
-        <v>43914</v>
+        <v>43974</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="3">
-        <v>43915</v>
+        <v>43975</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="3">
-        <v>43916</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="3">
-        <v>43917</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="3">
-        <v>43918</v>
+        <v>43978</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="3">
-        <v>43919</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="3">
-        <v>43920</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="3">
-        <v>43921</v>
+        <v>43981</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="3">
-        <v>43922</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="3">
-        <v>43923</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="3">
-        <v>43924</v>
+        <v>43984</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="3">
-        <v>43925</v>
+        <v>43985</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="3">
-        <v>43926</v>
+        <v>43986</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="3">
-        <v>43927</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="3">
-        <v>43928</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="3">
-        <v>43929</v>
+        <v>43989</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="3">
-        <v>43930</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="3">
-        <v>43931</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="3">
-        <v>43932</v>
+        <v>43992</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="3">
-        <v>43933</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="3">
-        <v>43934</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="3">
-        <v>43935</v>
+        <v>43995</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="3">
-        <v>43936</v>
+        <v>43996</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="3">
-        <v>43937</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="3">
-        <v>43938</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="3">
-        <v>43939</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="3">
-        <v>43940</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="3">
-        <v>43941</v>
+        <v>44001</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="3">
-        <v>43942</v>
+        <v>44002</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="3">
-        <v>43943</v>
+        <v>44003</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="3">
-        <v>43944</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="3">
-        <v>43945</v>
+        <v>44005</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="3">
-        <v>43946</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="3">
-        <v>43947</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="3">
-        <v>43948</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="3">
-        <v>43949</v>
+        <v>44009</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="3">
-        <v>43950</v>
+        <v>44010</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="3">
-        <v>43951</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="3">
-        <v>43952</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="3">
-        <v>43953</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="3">
-        <v>43954</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="3">
-        <v>43955</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="3">
-        <v>43956</v>
+        <v>44016</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="3">
-        <v>43957</v>
+        <v>44017</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="3">
-        <v>43958</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="3">
-        <v>43959</v>
+        <v>44019</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="3">
-        <v>43960</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="3">
-        <v>43961</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="3">
-        <v>43962</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="3">
-        <v>43963</v>
+        <v>44023</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="3">
-        <v>43964</v>
+        <v>44024</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="3">
-        <v>43965</v>
+        <v>44025</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="3">
-        <v>43966</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="3">
-        <v>43967</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="3">
-        <v>43968</v>
+        <v>44028</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="3">
-        <v>43969</v>
+        <v>44029</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="3">
-        <v>43970</v>
+        <v>44030</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="3">
-        <v>43971</v>
+        <v>44031</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="3">
-        <v>43972</v>
+        <v>44032</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="3">
-        <v>43973</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="3">
-        <v>43974</v>
+        <v>44034</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="3">
-        <v>43975</v>
+        <v>44035</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="3">
-        <v>43976</v>
+        <v>44036</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="3">
-        <v>43977</v>
+        <v>44037</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="3">
-        <v>43978</v>
+        <v>44038</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="3">
-        <v>43979</v>
+        <v>44039</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="3">
-        <v>43980</v>
+        <v>44040</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="3">
-        <v>43981</v>
+        <v>44041</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="3">
-        <v>43982</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="3">
-        <v>43983</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="3">
-        <v>43984</v>
+        <v>44044</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="3">
-        <v>43985</v>
+        <v>44045</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="3">
-        <v>43986</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="3">
-        <v>43987</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="3">
-        <v>43988</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="3">
-        <v>43989</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="3">
-        <v>43990</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="3">
-        <v>43991</v>
+        <v>44051</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="3">
-        <v>43992</v>
+        <v>44052</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="3">
-        <v>43993</v>
+        <v>44053</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="3">
-        <v>43994</v>
+        <v>44054</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="3">
-        <v>43995</v>
+        <v>44055</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="3">
-        <v>43996</v>
+        <v>44056</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="3">
-        <v>43997</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="3">
-        <v>43998</v>
+        <v>44058</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="3">
-        <v>43999</v>
+        <v>44059</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="3">
-        <v>44000</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="3">
-        <v>44001</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="3">
-        <v>44002</v>
+        <v>44062</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="3">
-        <v>44003</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="3">
-        <v>44004</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="3">
-        <v>44005</v>
+        <v>44065</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="3">
-        <v>44006</v>
+        <v>44066</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="3">
-        <v>44007</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="3">
-        <v>44008</v>
+        <v>44068</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="3">
-        <v>44009</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="3">
-        <v>44010</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="3">
-        <v>44011</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="3">
-        <v>44012</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="3">
-        <v>44013</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="3">
-        <v>44014</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="3">
-        <v>44015</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="3">
-        <v>44016</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="3">
-        <v>44017</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="3">
-        <v>44018</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="3">
-        <v>44019</v>
+        <v>44079</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="3">
-        <v>44020</v>
+        <v>44080</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="3">
-        <v>44021</v>
+        <v>44081</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="3">
-        <v>44022</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="3">
-        <v>44023</v>
+        <v>44083</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="3">
-        <v>44024</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="3">
-        <v>44025</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="3">
-        <v>44026</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="3">
-        <v>44027</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="3">
-        <v>44028</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="3">
-        <v>44029</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="3">
-        <v>44030</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="3">
-        <v>44031</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="3">
-        <v>44032</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="3">
-        <v>44033</v>
+        <v>44093</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="3">
-        <v>44034</v>
+        <v>44094</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="3">
-        <v>44035</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="3">
-        <v>44036</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="3">
-        <v>44037</v>
+        <v>44097</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="3">
-        <v>44038</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="3">
-        <v>44039</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="3">
-        <v>44040</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="3">
-        <v>44041</v>
+        <v>44101</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="3">
-        <v>44042</v>
+        <v>44102</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="3">
-        <v>44043</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="3">
-        <v>44044</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="3">
-        <v>44045</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="3">
-        <v>44046</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="3">
-        <v>44047</v>
+        <v>44107</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="3">
-        <v>44048</v>
+        <v>44108</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="3">
-        <v>44049</v>
+        <v>44109</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="3">
-        <v>44050</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="3">
-        <v>44051</v>
+        <v>44111</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="3">
-        <v>44052</v>
+        <v>44112</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="3">
-        <v>44053</v>
+        <v>44113</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="3">
-        <v>44054</v>
+        <v>44114</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="3">
-        <v>44055</v>
+        <v>44115</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="3">
-        <v>44056</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="3">
-        <v>44057</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" s="3">
-        <v>44058</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="3">
-        <v>44059</v>
+        <v>44119</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="3">
-        <v>44060</v>
+        <v>44120</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="3">
-        <v>44061</v>
+        <v>44121</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="3">
-        <v>44062</v>
+        <v>44122</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="3">
-        <v>44063</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="3">
-        <v>44064</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="3">
-        <v>44065</v>
+        <v>44125</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="3">
-        <v>44066</v>
+        <v>44126</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="3">
-        <v>44067</v>
+        <v>44127</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" s="3">
-        <v>44068</v>
+        <v>44128</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="3">
-        <v>44069</v>
+        <v>44129</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="3">
-        <v>44070</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="3">
-        <v>44071</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="3">
-        <v>44072</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="3">
-        <v>44073</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" s="3">
-        <v>44074</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="3">
-        <v>44075</v>
+        <v>44135</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" s="3">
-        <v>44076</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="3">
-        <v>44077</v>
+        <v>44137</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" s="3">
-        <v>44078</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="3">
-        <v>44079</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" s="3">
-        <v>44080</v>
+        <v>44140</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="3">
-        <v>44081</v>
+        <v>44141</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" s="3">
-        <v>44082</v>
+        <v>44142</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="3">
-        <v>44083</v>
+        <v>44143</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" s="3">
-        <v>44084</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="3">
-        <v>44085</v>
+        <v>44145</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" s="3">
-        <v>44086</v>
+        <v>44146</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="3">
-        <v>44087</v>
+        <v>44147</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="3">
-        <v>44088</v>
+        <v>44148</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="3">
-        <v>44089</v>
+        <v>44149</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="3">
-        <v>44090</v>
+        <v>44150</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="3">
-        <v>44091</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="3">
-        <v>44092</v>
+        <v>44152</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="3">
-        <v>44093</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" s="3">
-        <v>44094</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="3">
-        <v>44095</v>
+        <v>44155</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" s="3">
-        <v>44096</v>
+        <v>44156</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="3">
-        <v>44097</v>
+        <v>44157</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" s="3">
-        <v>44098</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="3">
-        <v>44099</v>
+        <v>44159</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" s="3">
-        <v>44100</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="3">
-        <v>44101</v>
+        <v>44161</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="3">
-        <v>44102</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="3">
-        <v>44103</v>
+        <v>44163</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" s="3">
-        <v>44104</v>
+        <v>44164</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="3">
-        <v>44105</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" s="3">
-        <v>44106</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="3">
-        <v>44107</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" s="3">
-        <v>44108</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="3">
-        <v>44109</v>
+        <v>44169</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" s="3">
-        <v>44110</v>
+        <v>44170</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="3">
-        <v>44111</v>
+        <v>44171</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" s="3">
-        <v>44112</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="3">
-        <v>44113</v>
+        <v>44173</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" s="3">
-        <v>44114</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="3">
-        <v>44115</v>
+        <v>44175</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" s="3">
-        <v>44116</v>
+        <v>44176</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="3">
-        <v>44117</v>
+        <v>44177</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="3">
-        <v>44118</v>
+        <v>44178</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="3">
-        <v>44119</v>
+        <v>44179</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" s="3">
-        <v>44120</v>
+        <v>44180</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="3">
-        <v>44121</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" s="3">
-        <v>44122</v>
+        <v>44182</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="3">
-        <v>44123</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" s="3">
-        <v>44124</v>
+        <v>44184</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="3">
-        <v>44125</v>
+        <v>44185</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" s="3">
-        <v>44126</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="3">
-        <v>44127</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" s="3">
-        <v>44128</v>
+        <v>44188</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="3">
-        <v>44129</v>
+        <v>44189</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" s="3">
-        <v>44130</v>
+        <v>44190</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="3">
-        <v>44131</v>
+        <v>44191</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" s="3">
-        <v>44132</v>
+        <v>44192</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="3">
-        <v>44133</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" s="3">
-        <v>44134</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="3">
-        <v>44135</v>
+        <v>44195</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="3">
-        <v>44136</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440" s="3">
-        <v>44137</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441" s="3">
-        <v>44138</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" s="3">
-        <v>44139</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" s="3">
-        <v>44140</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444" s="3">
-        <v>44141</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" s="3">
-        <v>44142</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446" s="3">
-        <v>44143</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447" s="3">
-        <v>44144</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1">
-      <c r="A448" s="3">
-        <v>44145</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449" s="3">
-        <v>44146</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450" s="3">
-        <v>44147</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" s="3">
-        <v>44148</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452" s="3">
-        <v>44149</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453" s="3">
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454" s="3">
-        <v>44151</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455" s="3">
-        <v>44152</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456" s="3">
-        <v>44153</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1">
-      <c r="A457" s="3">
-        <v>44154</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1">
-      <c r="A458" s="3">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1">
-      <c r="A459" s="3">
-        <v>44156</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1">
-      <c r="A460" s="3">
-        <v>44157</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1">
-      <c r="A461" s="3">
-        <v>44158</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1">
-      <c r="A462" s="3">
-        <v>44159</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" s="3">
-        <v>44160</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1">
-      <c r="A464" s="3">
-        <v>44161</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1">
-      <c r="A465" s="3">
-        <v>44162</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1">
-      <c r="A466" s="3">
-        <v>44163</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1">
-      <c r="A467" s="3">
-        <v>44164</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1">
-      <c r="A468" s="3">
-        <v>44165</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1">
-      <c r="A469" s="3">
-        <v>44166</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1">
-      <c r="A470" s="3">
-        <v>44167</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1">
-      <c r="A471" s="3">
-        <v>44168</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1">
-      <c r="A472" s="3">
-        <v>44169</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1">
-      <c r="A473" s="3">
-        <v>44170</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1">
-      <c r="A474" s="3">
-        <v>44171</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1">
-      <c r="A475" s="3">
-        <v>44172</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1">
-      <c r="A476" s="3">
-        <v>44173</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1">
-      <c r="A477" s="3">
-        <v>44174</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1">
-      <c r="A478" s="3">
-        <v>44175</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1">
-      <c r="A479" s="3">
-        <v>44176</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1">
-      <c r="A480" s="3">
-        <v>44177</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1">
-      <c r="A481" s="3">
-        <v>44178</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1">
-      <c r="A482" s="3">
-        <v>44179</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1">
-      <c r="A483" s="3">
-        <v>44180</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1">
-      <c r="A484" s="3">
-        <v>44181</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1">
-      <c r="A485" s="3">
-        <v>44182</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1">
-      <c r="A486" s="3">
-        <v>44183</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1">
-      <c r="A487" s="3">
-        <v>44184</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1">
-      <c r="A488" s="3">
-        <v>44185</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1">
-      <c r="A489" s="3">
-        <v>44186</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1">
-      <c r="A490" s="3">
-        <v>44187</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1">
-      <c r="A491" s="3">
-        <v>44188</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1">
-      <c r="A492" s="3">
-        <v>44189</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1">
-      <c r="A493" s="3">
-        <v>44190</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1">
-      <c r="A494" s="3">
-        <v>44191</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1">
-      <c r="A495" s="3">
-        <v>44192</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1">
-      <c r="A496" s="3">
-        <v>44193</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1">
-      <c r="A497" s="3">
-        <v>44194</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1">
-      <c r="A498" s="3">
-        <v>44195</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1">
-      <c r="A499" s="3">
         <v>44196</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B81:H81"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="I27:I29"/>
